--- a/excel/sql/测试excel.xlsx
+++ b/excel/sql/测试excel.xlsx
@@ -1,27 +1,372 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+  <si>
+    <t>保集澜湾的周边配套还是可以的，但是这其中有一个很大的问题——交通不便</t>
+  </si>
+  <si>
+    <t>自带恒温游泳池、会所</t>
+  </si>
+  <si>
+    <t>小区内部配套</t>
+  </si>
+  <si>
+    <t>露德圣母大教堂、香华山体育公园（规划中）</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>建设银行、工商银行、招商银行、交通银行、平安银行</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>中国邮政储蓄</t>
+  </si>
+  <si>
+    <t>邮局</t>
+  </si>
+  <si>
+    <t>曙光医院东院、华山东院、浦东妇幼保健院、长征医院（规划中）</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>恒生商业广场</t>
+  </si>
+  <si>
+    <t>商场</t>
+  </si>
+  <si>
+    <t>暂无大学</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>东方世纪学校、唐镇第一小学、唐镇中学、华东师范大学二附中</t>
+  </si>
+  <si>
+    <t>中小学</t>
+  </si>
+  <si>
+    <t>宋庆龄幼儿园、王港幼儿园</t>
+  </si>
+  <si>
+    <t>幼儿园</t>
+  </si>
+  <si>
+    <t>1039路上丰路虹雅路站、沪川线虹盛路上丰路、浦东2路上丰路卡园路站、636路上丰路卡园路站。</t>
+  </si>
+  <si>
+    <t>公交</t>
+  </si>
+  <si>
+    <t>距离地铁2号线唐镇站、创新中路站约4公里</t>
+  </si>
+  <si>
+    <t>轨道交通</t>
+  </si>
+  <si>
+    <t>保集澜湾有地下停车位1012个，车位比：1:1.25</t>
+  </si>
+  <si>
+    <t>停车位</t>
+  </si>
+  <si>
+    <t>小区内部杂物清理整洁定时打扫</t>
+  </si>
+  <si>
+    <t>卫生服务</t>
+  </si>
+  <si>
+    <t>小区门禁智能管理系统，各主要路口设有闭路电视监控系统，红外报警系统</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>电梯通行</t>
+  </si>
+  <si>
+    <t>电梯服务</t>
+  </si>
+  <si>
+    <t>ADSL或者光纤</t>
+  </si>
+  <si>
+    <t>通讯设备</t>
+  </si>
+  <si>
+    <t>市政管道天然气、2个月一缴、2.50元/立方</t>
+  </si>
+  <si>
+    <t>燃气</t>
+  </si>
+  <si>
+    <t>环网供电、月缴、早上6点到晚上10点，是0.6</t>
+  </si>
+  <si>
+    <t>供电</t>
+  </si>
+  <si>
+    <t>无供暖</t>
+  </si>
+  <si>
+    <t>供暖</t>
+  </si>
+  <si>
+    <t>市政直供水、水泵水箱供水，2个月一缴，2.9</t>
+  </si>
+  <si>
+    <t>供水</t>
+  </si>
+  <si>
+    <t>3.00元/平方米·月</t>
+  </si>
+  <si>
+    <t>物业费</t>
+  </si>
+  <si>
+    <t>容积率</t>
+  </si>
+  <si>
+    <t>绿化率</t>
+  </si>
+  <si>
+    <t>上海川杰置业有限公司</t>
+  </si>
+  <si>
+    <t>开发商</t>
+  </si>
+  <si>
+    <t>竣工时间</t>
+  </si>
+  <si>
+    <t>产权描述</t>
+  </si>
+  <si>
+    <t>外环以外</t>
+  </si>
+  <si>
+    <t>环线位置</t>
+  </si>
+  <si>
+    <t>浦东上丰路华东路（靠近银行卡园）</t>
+  </si>
+  <si>
+    <t>小区地址</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>结论</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保集澜湾的产权年限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF191919"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保集澜湾</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东上丰路华东路（靠近银行卡园）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地香颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀沿西路218弄</t>
+  </si>
+  <si>
+    <t>1050路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿城集团</t>
+  </si>
+  <si>
+    <t>长城物业管理有限公司</t>
+  </si>
+  <si>
+    <t>川杨新苑</t>
+  </si>
+  <si>
+    <t>上海绿地物业</t>
+  </si>
+  <si>
+    <t>上海绿地集团</t>
+  </si>
+  <si>
+    <t>990、977、961、徐川线、方川线、申川线</t>
+  </si>
+  <si>
+    <t>桃浦新家园</t>
+  </si>
+  <si>
+    <t>上海锦联房地产开发有限责任公司</t>
+  </si>
+  <si>
+    <t>长城物业管理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市普陀区银杏路30弄25号</t>
+  </si>
+  <si>
+    <t>地铁2号线唐镇站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1039路、636路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科路2195弄中科路2166弄顺和路126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海锦联房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海川杰置业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,19 +389,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +703,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="31" max="31" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>